--- a/biology/Botanique/Socratea_exorrhiza/Socratea_exorrhiza.xlsx
+++ b/biology/Botanique/Socratea_exorrhiza/Socratea_exorrhiza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Socratea exorrhiza est une espèce de plantes de la famille des Arecaceae (les palmiers) originaire des forêts tropicales humides d'Amérique centrale et d'Amérique du Sud. Il se caractérise notamment par ses racines-échasses formant un cône soutenant la base du tronc. On l'appelle aussi Palmier marcheur ou Palmier à échasses.
-Il est connu en Guyane sous les noms de Awara-monpé, Awara-monbin (Créole)[4], Pasiwɨ, Pasi'ɨ (Kali'na), Pup (Palikur), Patsi'ɨ (Teko), Pëpë (Wayana), Pasi'ɨ (Wayãpi), Paasa, Tasi-tiki (Nenge tongo), Paxiúba (Portugais du Brésil)[5].
+Il est connu en Guyane sous les noms de Awara-monpé, Awara-monbin (Créole), Pasiwɨ, Pasi'ɨ (Kali'na), Pup (Palikur), Patsi'ɨ (Teko), Pëpë (Wayana), Pasi'ɨ (Wayãpi), Paasa, Tasi-tiki (Nenge tongo), Paxiúba (Portugais du Brésil).
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Socratea exorrhiza est un palmier à tige solitaire, dressée, pouvant atteindre jusqu'à 20-25 mètres de haut[6], avec un diamètre du tronc de 10-18 cm. Il porte un « cône » lâche de racines-échasses remarquables, atteignant 2 mètres de long pour 0,5-9 cm de diamètre, armés de pneumatorhizes transformés en petites épines coniques, dont la fonction a fait l'objet de discussions.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Socratea exorrhiza est un palmier à tige solitaire, dressée, pouvant atteindre jusqu'à 20-25 mètres de haut, avec un diamètre du tronc de 10-18 cm. Il porte un « cône » lâche de racines-échasses remarquables, atteignant 2 mètres de long pour 0,5-9 cm de diamètre, armés de pneumatorhizes transformés en petites épines coniques, dont la fonction a fait l'objet de discussions.
 Les 5 à 8 feuilles de ce palmier sont glabres, plus ou moins arquées, à gaine tubulaire, mesurent jusqu'à 2 mètres de long et forment une couronne cylindrique, plumeuse, bleu-vert.
-Celles qui sont exposées au soleil sont plus épaisses et ont davantage de trichomes et de stomates que celles qui poussent à l'ombre[7].
+Celles qui sont exposées au soleil sont plus épaisses et ont davantage de trichomes et de stomates que celles qui poussent à l'ombre.
 Le pétiole cylindrique, est blanchâtre-tomenteux long de 10-40 cm, à rachis brun-tomenteux, arrondi en dessous, canaliculé au-dessus, long de 1,4-2,8 m, porte 13-25 pennes insérées à intervalles réguliers, de chaque côté.
 Les pennes mesurent jusqu'à 100 × 30 cm, sont cunéiformes, asymétriques, insérées obliquement à la base, se terminant brusquement comme déchirée à l'apex, entières ou laciniées longitudinalement en 2-8 segments inégaux, plus ou moins pubérulentes sur les nervures abaxiales.
 C'est une espèce monoïque.
@@ -526,7 +540,7 @@
 Les bractées pédonculaires mesurent jusqu'à 60 cm de long, précocement caduc, tomenteux brun clair.
 Le rachis est long de 8-25 cm, portant 9-14 rachidules, longues de 30-70 cm, avec un tomentum identique à celui du pédoncule.
 Les fleurs sont blanches.
-Les fruits sont de forme ellipsoïde, lisse, glabre, mesurant 25-30 x 15-25 mm, de couleur brun jaunâtre à maturité, avec un noyau de 2 à 3 cm de diamètre[4].
+Les fruits sont de forme ellipsoïde, lisse, glabre, mesurant 25-30 x 15-25 mm, de couleur brun jaunâtre à maturité, avec un noyau de 2 à 3 cm de diamètre.
 </t>
         </is>
       </c>
@@ -555,9 +569,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Socratea exorrhiza est répandu de l'Amérique centrale (Costa Rica, Nicaragua, Panama) au bassin de l'Amazone en Amérique du Sud (Colombie, Venezuela : Delta Amacuro, Bolívar Amazonas, Andes vénézuéliennes et Cordillère côtière, Guyana, Suriname, Guyane, Équateur, Pérou, Bolivie, Brésil)[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Socratea exorrhiza est répandu de l'Amérique centrale (Costa Rica, Nicaragua, Panama) au bassin de l'Amazone en Amérique du Sud (Colombie, Venezuela : Delta Amacuro, Bolívar Amazonas, Andes vénézuéliennes et Cordillère côtière, Guyana, Suriname, Guyane, Équateur, Pérou, Bolivie, Brésil).
 Ce palmier a été introduit, entre autres, à l'île Maurice.
 </t>
         </is>
@@ -587,25 +603,27 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Socratea exorrhiza pousse dans les forêts sempervirentes de plaine et montagnardes, autour de 50–1 000 m d'altitude au Venezuela[6].
-Il fleurit et fructifie toute l'année en Guyane, et pousse sur tous types de sol et de drainage, mais jamais en forte densité[4].
-Socratea exorrhiza est réputé pour son curieux système racinaire, capable de se déplacer de l'endroit où il a germé, en faisant pousser ses racines sur un côté et en les abandonnant de l'autre[réf. nécessaire]. Certaines personnes l’appellent « l’arbre qui marche » (d'où son nom en anglais Walking palm) en raison de cette capacité. Le biologiste Gerardo Avalos a dénigré cette capacité de déplacement[8],[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Socratea exorrhiza pousse dans les forêts sempervirentes de plaine et montagnardes, autour de 50–1 000 m d'altitude au Venezuela.
+Il fleurit et fructifie toute l'année en Guyane, et pousse sur tous types de sol et de drainage, mais jamais en forte densité.
+Socratea exorrhiza est réputé pour son curieux système racinaire, capable de se déplacer de l'endroit où il a germé, en faisant pousser ses racines sur un côté et en les abandonnant de l'autre[réf. nécessaire]. Certaines personnes l’appellent « l’arbre qui marche » (d'où son nom en anglais Walking palm) en raison de cette capacité. Le biologiste Gerardo Avalos a dénigré cette capacité de déplacement,.
 Ce phénomène est pourtant parfaitement observable dans les forêts primaires du Costa Rica. Il s’agit la plupart du temps d’une résistance aux chutes d’arbre ou de grosses branches, dans ce milieu très perturbé, qui provoque sur les individus couché sous l’impact, une repousse de ses racines proches du point de contact, pour lui permettre de reprendre son ascension verticale en reprenant ainsi une assise plus stable.
-Même en l’absence de cet accident végétatif, la recherche de lumière peut, dans certains cas, expliquer des pousses de S. exorrhiza à l’horizontale avec une reprise de la verticalité sur une nouvelle embase de ses racines échasses, dès que les conditions de luminosité sont suffisantes pour satisfaire ses besoins chlorophylliens[10].
-Les graines de Socratea exorrhiza germent facilement au Panama[11].
+Même en l’absence de cet accident végétatif, la recherche de lumière peut, dans certains cas, expliquer des pousses de S. exorrhiza à l’horizontale avec une reprise de la verticalité sur une nouvelle embase de ses racines échasses, dès que les conditions de luminosité sont suffisantes pour satisfaire ses besoins chlorophylliens.
+Les graines de Socratea exorrhiza germent facilement au Panama.
 À Manaus, Socratea exorrhiza est associé aux forêts des basses terres et ripicoles.
-La germination de ses graines est peu affectée par les inondations[12].
-Diverses espèces frugivores mangent l'enveloppe charnue des fruits de Socratea dans le Parc national de Manú (Pérou). Les graines dures, à l'endosperme relativement mince, s'accumulent jusqu'à ce que Tayassu pecari les consomme (ce dernier parvient en effet à écraser ses graines entières)[13],[14], et parfois participent à la dissémination de ses graines[15].
-À la station biologique de La Selva (en) (Costa Rica), les pécaris à collier (Pecari tajacu) mâchent aussi les jeunes racines-échasses de Socratea exorrhiza, ce qui modifie la forme et réduit la taille des cônes racinaires et diminue leur fonction de soutien[16].
-Les graines de Socratea exorrhiza ne présenteraient pas de défense physique ou chimique contre leur prédation au Costa Rica[17].
-Soixante-six espèces épiphytes et hémiépiphytes ont été recensées sur Socratea exorrhiza au Panama[18].
-Ces communautés végétales épiphytes sont très dynamiques[19].
-La prédation des graines de Socratea exorrhiza par les insectes et les mammifères varie selon la saison de fructification et la distance des pieds-mère, à la station biologique de La Selva (en) (Costa Rica) et dans la Gigante Peninsula (Pérou)[20].
-La survie des graines de Socratea exorrhiza face à la prédation, aux agents pathogènes, selon l'exploitation forestière sélective, la présence de litière a été étudiée au Pérou[21]
-Dans le parc national Yasuní (Équateur), les singes araignées Ateles belzebuth belzebuth avalent habituellement les graines de Socratea exorrhiza (qu'ils consomment en abondance en avril), tandis que les singes laineux Lagothrix lagotricha ont tendance à consommer les graines immatures, ou la chair des fruits mâtures en recrachant les graines[22].
-Dans la Reserva Florestal Adolpho Ducke (en) (Brésil), la tortue Phrynops rufipes mange communément les graines de Socratea exorrhiza, parfois en les avalant entières[23].
+La germination de ses graines est peu affectée par les inondations.
+Diverses espèces frugivores mangent l'enveloppe charnue des fruits de Socratea dans le Parc national de Manú (Pérou). Les graines dures, à l'endosperme relativement mince, s'accumulent jusqu'à ce que Tayassu pecari les consomme (ce dernier parvient en effet à écraser ses graines entières) et parfois participent à la dissémination de ses graines.
+À la station biologique de La Selva (en) (Costa Rica), les pécaris à collier (Pecari tajacu) mâchent aussi les jeunes racines-échasses de Socratea exorrhiza, ce qui modifie la forme et réduit la taille des cônes racinaires et diminue leur fonction de soutien.
+Les graines de Socratea exorrhiza ne présenteraient pas de défense physique ou chimique contre leur prédation au Costa Rica.
+Soixante-six espèces épiphytes et hémiépiphytes ont été recensées sur Socratea exorrhiza au Panama.
+Ces communautés végétales épiphytes sont très dynamiques.
+La prédation des graines de Socratea exorrhiza par les insectes et les mammifères varie selon la saison de fructification et la distance des pieds-mère, à la station biologique de La Selva (en) (Costa Rica) et dans la Gigante Peninsula (Pérou).
+La survie des graines de Socratea exorrhiza face à la prédation, aux agents pathogènes, selon l'exploitation forestière sélective, la présence de litière a été étudiée au Pérou
+Dans le parc national Yasuní (Équateur), les singes araignées Ateles belzebuth belzebuth avalent habituellement les graines de Socratea exorrhiza (qu'ils consomment en abondance en avril), tandis que les singes laineux Lagothrix lagotricha ont tendance à consommer les graines immatures, ou la chair des fruits mâtures en recrachant les graines.
+Dans la Reserva Florestal Adolpho Ducke (en) (Brésil), la tortue Phrynops rufipes mange communément les graines de Socratea exorrhiza, parfois en les avalant entières.
 </t>
         </is>
       </c>
@@ -634,19 +652,21 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Guyane, le stipe de Socratea exorrhiza est divisé longitudinalement pour servir dans la construction de maisons et d'autres structures (cloisons, planchers, chevrons). On peut l'évider pour en faire un tube. On en fait aussi des fuseaux artisanaux[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Guyane, le stipe de Socratea exorrhiza est divisé longitudinalement pour servir dans la construction de maisons et d'autres structures (cloisons, planchers, chevrons). On peut l'évider pour en faire un tube. On en fait aussi des fuseaux artisanaux.
 Les fruits sont réputés toxiques chez les Palikur qui les emploient, mélangés à des fragments de ses racines, pour empoisonner les pécaris à collier (Tayassu tajacu).
 Les Wayãpi font un emplâtre de stipe gratté pour cicatriser l'ombilic des nouveau-nés.
-La sève des racines est réputée corrosive[24].
-Les tiges sont fendues en planches et utilisées dans la construction de maisons au Venezuela[6].
-Les amérindiens Tapɨĩy agrandiraient la perforation de leurs lobes d'oreilles avec ses racines[24], tandis que les Tacana de Bolivie l'emploient pour allonger leur pénis[25].
-Au Brésil, les Yekwana de l'Auaris utilisent la sève irritante des racines comme adjuvant du curare[26].
-Les Mosetene écrasent les racines aériennes pour pêcher au poison[27].
-Au Panama, les Emberá et Wounaan emploient Socratea exorrhiza pour construire les toits et le sol des maisons rondes et ouvertes traditionnelles[11].
-La partie interne des racines aériennes est employée comme aphrodisiaque masculin[28].
-Les racines sont également bouillies dans de l'eau pour préparer une infusion destinée à traiter l'hépatite[29].
+La sève des racines est réputée corrosive.
+Les tiges sont fendues en planches et utilisées dans la construction de maisons au Venezuela.
+Les amérindiens Tapɨĩy agrandiraient la perforation de leurs lobes d'oreilles avec ses racines, tandis que les Tacana de Bolivie l'emploient pour allonger leur pénis.
+Au Brésil, les Yekwana de l'Auaris utilisent la sève irritante des racines comme adjuvant du curare.
+Les Mosetene écrasent les racines aériennes pour pêcher au poison.
+Au Panama, les Emberá et Wounaan emploient Socratea exorrhiza pour construire les toits et le sol des maisons rondes et ouvertes traditionnelles.
+La partie interne des racines aériennes est employée comme aphrodisiaque masculin.
+Les racines sont également bouillies dans de l'eau pour préparer une infusion destinée à traiter l'hépatite.
 </t>
         </is>
       </c>
@@ -675,9 +695,11 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Socratea exorrhiza accumule principalement du β-tocotriénol (forme rare de vitamine E) dans ses graines[30].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Socratea exorrhiza accumule principalement du β-tocotriénol (forme rare de vitamine E) dans ses graines.
 </t>
         </is>
       </c>
@@ -706,7 +728,9 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>En 1824, le botaniste Martius propose le protologue suivant pour Iriartea exorrhiza Mart. (basionyme de Socratea exorrhiza) :
 « IRIARTEA EXORHIZA. Tab. 33. 34.
@@ -720,7 +744,7 @@
 Usus hujus Palmae speciosae, quae incolis Baxiúva audit, est varius; e caudicis ligno nimirum versus peripheriam nigro atque durissimo longitudinaliter fisso trabes asseresque ad tegenda tuguria firmandasque cymbas fabricant; frondibus tegularum in modum tecta muniunt. Fructus, hominibus non edules, nonnullis passeribus sunt exoptatissimi.
 ICON. EXPL. Tab. 33. Iriartea exorhiza et Elaeis melanococca in fluvii lignorum ripa depietae, nagnitudine centies imminutae. Reduces anno 1820 e tristibus, qui fluvios Solimoẽs et Japura obumbrant saltibus, quum ad magni lignorum fluminis sive Madeirae ostium pervonissemus, multis attracti rumoribus, quos da Indicis Maué atque Mundrueú gentibus, tanquam validissimis et variis artibus excultis Lusitani spargebant, ad illorum pagos secundum canalem Abacaxis et lacum Canumensem naves fleximus. Haud multum intra diversarum insularum per fluminis ostium sitarum labyrinthum processimus, quum jam novi consilii poeniteret et fluminis nigri littora lacta benignoque hostpitio navigantes excipientia in memoriam non sine desiderio revocaremus. Quidquid enim natura horribile foedumque habet hac in navigatione perpessi sumus. Interdiu cymbas, funibus ad ripae arbores ligatis, adverso flumine trahentes, illius impetu, toto coelo fulguribus corruscante, imbreque ventutque inter immania tonitrua furentibus, hue illue jactati et arboreum imminientium casu territi, laboriosissimum vitam egimus; nocto vero, quum juxta ripam substitissemus, circumfusa profunda ealigine, silentibus praeter simias tigresque omnibus animalibus, culicum denso agmine grassantium ictus toleravimus. Neque haec solummodo animalia hic saeviunt, fluvius enim immensa devastatur multitudine piscis cujusdam, Piranha dicti, voracissimi atque sanguinis enpidissimi, nee non Crocodilorum, qui calores diurno alleeti e turbulentis aquis in ripam surgunt, visu horrendi. Arbores altae a fluminis ripa paulo remotiores, e Bertholletiae, Lecythis, Styracis, Heistriae, Turraeae, Siphoniae, Machaoniae, generibus, saepe parasiticarum Besleriae, Gongorae, Epidendri splendentibus floribus vel Aroidearum atque Filicum laetis frondibus adornatae, variis speviebus Abromae, Potaliae, Hirtellae, Bignoniae, Pterocarpi, Dimorphae, Galipeae, Blackeae, Coffeae, Hameliae, Psychotriae, Theobromae densissime obvallantur, ita ut, quem Smilacis, Cissi, Aristolachiae varii inplexus vel Hisingerae, Solani, Büttneriae spinae non terreant, illarum septa non sine magno labore serpentumque venatorum periculo adire posset. E Palmarum familia hic frequenter occurrunt Iriartea exorhiza atque Elaeis melanoeocca, altera altitudine et comae elegantia, altera crassitie et decubitu insignis, egregiumque hoc contubernium colit Uraniae species, Pacova-Sororoca incolarum, enormibus frondibus tamquam Musa conspicua, quam Uraniae amazonicae nomine alio loeo describemus. Haec sunt quae ad explicandam iconem necessaria videbantur
 Tab 34. Iriartea exorrhiza - I.Pinna, II. Kami spadicis floridi e spathis quinque prodeuntes (m.n.). — 1. Flos masculus. 2. Ejusdem calyx. 3. Ejusdem petala. 4. Stamina nonulla cum pistilli rudimento in petali basi sessilia. 5. Stamina nonulla separsis cum polline. &amp; Flos foemineus. 7. Ejusdem calyx. 8. Ejusdem corolla aperta. 9. Pistillum. 10. Ovarii sectio horizontalis (omnia m. a.). 11. Bacca. 12. Ejusdem nucleus. 13. Idem perpeudiculariter duscisus (m. n.). — In Tab. 51. Fig. 5. partem sistis radicis spinosae »
-— Carl Friedrich Philipp von Martius, 1824[31].</t>
+— Carl Friedrich Philipp von Martius, 1824.</t>
         </is>
       </c>
     </row>
